--- a/Data_clean/MCAS/Estados_US/Edos_USA_2015/MARYLAND_2015.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2015/MARYLAND_2015.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D886"/>
+  <dimension ref="A1:D880"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -413,7 +413,7 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C4">
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C5">
@@ -654,7 +654,7 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C21">
@@ -758,7 +758,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C29">
@@ -1031,7 +1031,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C50">
@@ -1309,7 +1309,7 @@
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C71">
@@ -1462,7 +1462,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1519,7 +1519,7 @@
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C86">
@@ -1823,7 +1823,7 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C109">
@@ -1875,12 +1875,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C113">
@@ -1893,7 +1893,7 @@
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C114">
@@ -1906,7 +1906,7 @@
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C115">
@@ -1945,7 +1945,7 @@
     <row r="118">
       <c r="B118" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C118">
@@ -1997,7 +1997,7 @@
     <row r="122">
       <c r="B122" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C122">
@@ -2049,7 +2049,7 @@
     <row r="126">
       <c r="B126" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C126">
@@ -2218,7 +2218,7 @@
     <row r="139">
       <c r="B139" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C139">
@@ -2270,7 +2270,7 @@
     <row r="143">
       <c r="B143" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C143">
@@ -2465,7 +2465,7 @@
     <row r="158">
       <c r="B158" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C158">
@@ -2517,7 +2517,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C162">
@@ -2678,7 +2678,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C174">
@@ -2691,7 +2691,7 @@
     <row r="175">
       <c r="B175" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C175">
@@ -2704,7 +2704,7 @@
     <row r="176">
       <c r="B176" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C176">
@@ -2795,7 +2795,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C183">
@@ -2834,7 +2834,7 @@
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C186">
@@ -2977,7 +2977,7 @@
     <row r="197">
       <c r="B197" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C197">
@@ -3003,7 +3003,7 @@
     <row r="199">
       <c r="B199" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C199">
@@ -3029,7 +3029,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C201">
@@ -3042,7 +3042,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C202">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C207">
@@ -3151,7 +3151,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C210">
@@ -3203,7 +3203,7 @@
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C214">
@@ -3229,7 +3229,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C216">
@@ -3242,7 +3242,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C217">
@@ -3281,7 +3281,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C220">
@@ -3294,7 +3294,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C221">
@@ -3307,7 +3307,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C222">
@@ -3346,7 +3346,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C225">
@@ -3359,7 +3359,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C226">
@@ -3411,7 +3411,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C230">
@@ -3424,7 +3424,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C231">
@@ -3489,7 +3489,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C236">
@@ -3502,7 +3502,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C237">
@@ -3671,7 +3671,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C250">
@@ -3697,7 +3697,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C252">
@@ -3723,7 +3723,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C254">
@@ -3749,7 +3749,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C256">
@@ -3775,7 +3775,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C258">
@@ -3788,7 +3788,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C259">
@@ -3897,7 +3897,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C267">
@@ -3936,7 +3936,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C270">
@@ -4040,7 +4040,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C278">
@@ -4079,7 +4079,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C281">
@@ -4144,7 +4144,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Mineral de la Reforma</t>
+          <t>Mineral De La Reforma</t>
         </is>
       </c>
       <c r="C286">
@@ -4157,7 +4157,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C287">
@@ -4170,7 +4170,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C288">
@@ -4183,7 +4183,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C289">
@@ -4209,7 +4209,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C291">
@@ -4235,7 +4235,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C293">
@@ -4326,7 +4326,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C300">
@@ -4339,7 +4339,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C301">
@@ -4352,7 +4352,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C302">
@@ -4417,7 +4417,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C307">
@@ -4430,7 +4430,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C308">
@@ -4456,7 +4456,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C310">
@@ -4513,7 +4513,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C314">
@@ -4552,7 +4552,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C317">
@@ -4656,7 +4656,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C325">
@@ -4695,7 +4695,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C328">
@@ -4734,7 +4734,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C331">
@@ -4747,7 +4747,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C332">
@@ -4760,7 +4760,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C333">
@@ -4786,7 +4786,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C335">
@@ -4799,7 +4799,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C336">
@@ -4838,7 +4838,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C339">
@@ -4864,7 +4864,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C341">
@@ -5402,7 +5402,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C382">
@@ -5693,7 +5693,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C404">
@@ -5771,7 +5771,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C410">
@@ -5898,7 +5898,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C419">
@@ -5955,7 +5955,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C423">
@@ -5981,7 +5981,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C425">
@@ -6007,7 +6007,7 @@
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>Cuyamecalco Villa de Zaragoza</t>
+          <t>Cuyamecalco Villa De Zaragoza</t>
         </is>
       </c>
       <c r="C427">
@@ -6020,7 +6020,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C428">
@@ -6033,7 +6033,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>Guelatao de Juárez</t>
+          <t>Guelatao De Juárez</t>
         </is>
       </c>
       <c r="C429">
@@ -6046,7 +6046,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C430">
@@ -6059,7 +6059,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C431">
@@ -6072,7 +6072,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C432">
@@ -6085,7 +6085,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C433">
@@ -6098,7 +6098,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C434">
@@ -6163,7 +6163,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C439">
@@ -6202,7 +6202,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C442">
@@ -6215,7 +6215,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C443">
@@ -6228,7 +6228,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C444">
@@ -6241,7 +6241,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C445">
@@ -6267,7 +6267,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C447">
@@ -6358,7 +6358,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>San Baltazar Yatzachi el Bajo</t>
+          <t>San Baltazar Yatzachi El Bajo</t>
         </is>
       </c>
       <c r="C454">
@@ -6410,7 +6410,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C458">
@@ -6540,7 +6540,7 @@
     <row r="468">
       <c r="B468" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C468">
@@ -6982,7 +6982,7 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C502">
@@ -7320,7 +7320,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C528">
@@ -7372,7 +7372,7 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C532">
@@ -7398,7 +7398,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C534">
@@ -7411,7 +7411,7 @@
     <row r="535">
       <c r="B535" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C535">
@@ -7424,7 +7424,7 @@
     <row r="536">
       <c r="B536" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C536">
@@ -7437,7 +7437,7 @@
     <row r="537">
       <c r="B537" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C537">
@@ -7463,7 +7463,7 @@
     <row r="539">
       <c r="B539" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C539">
@@ -7476,7 +7476,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C540">
@@ -7663,7 +7663,7 @@
     <row r="554">
       <c r="B554" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C554">
@@ -7689,7 +7689,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C556">
@@ -7832,7 +7832,7 @@
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C567">
@@ -7962,7 +7962,7 @@
     <row r="577">
       <c r="B577" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C577">
@@ -8040,7 +8040,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C583">
@@ -8144,7 +8144,7 @@
     <row r="591">
       <c r="B591" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C591">
@@ -8281,7 +8281,7 @@
         <v>34</v>
       </c>
       <c r="D601">
-        <v>0.009852216748768473</v>
+        <v>0.009852216748768471</v>
       </c>
     </row>
     <row r="602">
@@ -8456,7 +8456,7 @@
     <row r="615">
       <c r="B615" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C615">
@@ -8469,7 +8469,7 @@
     <row r="616">
       <c r="B616" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C616">
@@ -8521,7 +8521,7 @@
     <row r="620">
       <c r="B620" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C620">
@@ -8612,7 +8612,7 @@
     <row r="627">
       <c r="B627" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C627">
@@ -8625,7 +8625,7 @@
     <row r="628">
       <c r="B628" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C628">
@@ -8690,7 +8690,7 @@
     <row r="633">
       <c r="B633" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C633">
@@ -8755,7 +8755,7 @@
     <row r="638">
       <c r="B638" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C638">
@@ -8885,7 +8885,7 @@
     <row r="648">
       <c r="B648" t="inlineStr">
         <is>
-          <t>Totoltepec de Guerrero</t>
+          <t>Totoltepec De Guerrero</t>
         </is>
       </c>
       <c r="C648">
@@ -8924,7 +8924,7 @@
     <row r="651">
       <c r="B651" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C651">
@@ -9059,7 +9059,7 @@
     <row r="661">
       <c r="B661" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C661">
@@ -9085,7 +9085,7 @@
     <row r="663">
       <c r="B663" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C663">
@@ -9098,7 +9098,7 @@
     <row r="664">
       <c r="B664" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C664">
@@ -9111,7 +9111,7 @@
     <row r="665">
       <c r="B665" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C665">
@@ -9150,7 +9150,7 @@
     <row r="668">
       <c r="B668" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C668">
@@ -9277,7 +9277,7 @@
     <row r="677">
       <c r="B677" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C677">
@@ -9329,7 +9329,7 @@
     <row r="681">
       <c r="B681" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C681">
@@ -9498,7 +9498,7 @@
     <row r="694">
       <c r="B694" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C694">
@@ -9589,7 +9589,7 @@
     <row r="701">
       <c r="B701" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C701">
@@ -9602,7 +9602,7 @@
     <row r="702">
       <c r="B702" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C702">
@@ -9615,7 +9615,7 @@
     <row r="703">
       <c r="B703" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C703">
@@ -9628,7 +9628,7 @@
     <row r="704">
       <c r="B704" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C704">
@@ -9942,7 +9942,7 @@
     <row r="727">
       <c r="B727" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C727">
@@ -10303,7 +10303,7 @@
     <row r="754">
       <c r="B754" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C754">
@@ -10568,7 +10568,7 @@
     <row r="774">
       <c r="B774" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C774">
@@ -10633,7 +10633,7 @@
     <row r="779">
       <c r="B779" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C779">
@@ -10659,7 +10659,7 @@
     <row r="781">
       <c r="B781" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C781">
@@ -10737,7 +10737,7 @@
     <row r="787">
       <c r="B787" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C787">
@@ -10841,7 +10841,7 @@
     <row r="795">
       <c r="B795" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C795">
@@ -10854,7 +10854,7 @@
     <row r="796">
       <c r="B796" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C796">
@@ -10867,7 +10867,7 @@
     <row r="797">
       <c r="B797" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C797">
@@ -10880,7 +10880,7 @@
     <row r="798">
       <c r="B798" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C798">
@@ -10893,7 +10893,7 @@
     <row r="799">
       <c r="B799" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C799">
@@ -10997,7 +10997,7 @@
     <row r="807">
       <c r="B807" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C807">
@@ -11010,7 +11010,7 @@
     <row r="808">
       <c r="B808" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C808">
@@ -11036,7 +11036,7 @@
     <row r="810">
       <c r="B810" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C810">
@@ -11062,7 +11062,7 @@
     <row r="812">
       <c r="B812" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C812">
@@ -11205,7 +11205,7 @@
     <row r="823">
       <c r="B823" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C823">
@@ -11244,7 +11244,7 @@
     <row r="826">
       <c r="B826" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C826">
@@ -11335,7 +11335,7 @@
     <row r="833">
       <c r="B833" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C833">
@@ -11556,7 +11556,7 @@
     <row r="850">
       <c r="B850" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C850">
@@ -11667,7 +11667,7 @@
         <v>342</v>
       </c>
       <c r="D858">
-        <v>0.09910170964937699</v>
+        <v>0.09910170964937701</v>
       </c>
     </row>
     <row r="859">
@@ -11787,7 +11787,7 @@
     <row r="867">
       <c r="B867" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C867">
@@ -11800,7 +11800,7 @@
     <row r="868">
       <c r="B868" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C868">
@@ -11878,7 +11878,7 @@
     <row r="874">
       <c r="B874" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C874">
@@ -11964,41 +11964,6 @@
       </c>
       <c r="D880">
         <v>1</v>
-      </c>
-    </row>
-    <row r="882">
-      <c r="A882" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="883">
-      <c r="A883" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="884">
-      <c r="A884" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="885">
-      <c r="A885" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="886">
-      <c r="A886" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>
